--- a/Stocks/GODREJPROP.xlsx
+++ b/Stocks/GODREJPROP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>496.34999999999997</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>513.64798535474063</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>508.47543529651091</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>28.108231644581739</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>4.8999999999999773</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>27.949999999999932</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.17531305903398889</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>516.0127506951419</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-2.1045719509671699</v>
       </c>
       <c r="Y67">
         <v>-2.0721533553721216</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>522</v>
+      </c>
+      <c r="D83">
+        <v>553</v>
+      </c>
+      <c r="E83">
+        <v>522</v>
+      </c>
+      <c r="F83">
+        <v>539</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>538</v>
+      </c>
+      <c r="H83">
+        <v>526.47558768695103</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>524.85109248015101</v>
+      </c>
+      <c r="K83">
+        <v>510.35793986352019</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>90.823688422992035</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>515.24312537734465</v>
+      </c>
+      <c r="W83">
+        <v>513.19907828933799</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>2.0440470880066641</v>
+      </c>
+      <c r="Y83">
+        <v>-1.1264307314969533</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>541</v>
+      </c>
+      <c r="D84">
+        <v>543</v>
+      </c>
+      <c r="E84">
+        <v>530.20000000000005</v>
+      </c>
+      <c r="F84">
+        <v>540.9</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>538.0333333333333</v>
+      </c>
+      <c r="H84">
+        <v>532.25446051014217</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>528.88418304011748</v>
+      </c>
+      <c r="K84">
+        <v>514.76728656051569</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>91.431343405042227</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>10.699999999999932</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.83593749999999767</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V84">
+        <v>519.19033685775321</v>
+      </c>
+      <c r="W84">
+        <v>515.25099841605368</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>3.9393384416995332</v>
+      </c>
+      <c r="Y84">
+        <v>-0.11327689685765607</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="35"/>
+        <v>531.65</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="36"/>
+        <v>535.1</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="37"/>
+        <v>536.6</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="38"/>
+        <v>538.1</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>545</v>
+      </c>
+      <c r="D85">
+        <v>571</v>
+      </c>
+      <c r="E85">
+        <v>541</v>
+      </c>
+      <c r="F85">
+        <v>567</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>559.66666666666663</v>
+      </c>
+      <c r="H85">
+        <v>545.9605635884044</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>538.24325347564695</v>
+      </c>
+      <c r="K85">
+        <v>520.59677843595659</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>95.990458439869371</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>526.54566964886806</v>
+      </c>
+      <c r="W85">
+        <v>519.08425779264235</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>7.461411856225709</v>
+      </c>
+      <c r="Y85">
+        <v>1.4016608537590169</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="35"/>
+        <v>544.4</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="36"/>
+        <v>552.45000000000005</v>
+      </c>
+      <c r="AF85">
+        <f t="shared" si="37"/>
+        <v>556</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="38"/>
+        <v>559.55000000000007</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>567.65</v>
+      </c>
+      <c r="D86">
+        <v>584.9</v>
+      </c>
+      <c r="E86">
+        <v>567.65</v>
+      </c>
+      <c r="F86">
+        <v>582.95000000000005</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>578.5</v>
+      </c>
+      <c r="H86">
+        <v>562.23028179420226</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>548.61141936994761</v>
+      </c>
+      <c r="K86">
+        <v>531.05304989463286</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>97.149158591391597</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>15.300000000000068</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>17.25</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.88695652173913442</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>535.22325893365758</v>
+      </c>
+      <c r="W86">
+        <v>523.81505351170586</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>11.40820542195172</v>
+      </c>
+      <c r="Y86">
+        <v>3.4029697673975576</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="35"/>
+        <v>569.6</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="36"/>
+        <v>574.25</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="37"/>
+        <v>576.25</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="38"/>
+        <v>578.30000000000007</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>580</v>
+      </c>
+      <c r="D87">
+        <v>599.5</v>
+      </c>
+      <c r="E87">
+        <v>579.95000000000005</v>
+      </c>
+      <c r="F87">
+        <v>596.45000000000005</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>591.9666666666667</v>
+      </c>
+      <c r="H87">
+        <v>577.09847423043448</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>559.91999284329256</v>
+      </c>
+      <c r="K87">
+        <v>541.91903880693667</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>97.816693693271972</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>16.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>19.549999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.84398976982097385</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>544.64275755924871</v>
+      </c>
+      <c r="W87">
+        <v>529.19541991824622</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>15.447337641002491</v>
+      </c>
+      <c r="Y87">
+        <v>5.8118433421185447</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>582.20000000000005</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>587.4</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>589.75</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>592.05000000000007</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>600</v>
+      </c>
+      <c r="D88">
+        <v>617.04999999999995</v>
+      </c>
+      <c r="E88">
+        <v>578</v>
+      </c>
+      <c r="F88">
+        <v>601</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>598.68333333333328</v>
+      </c>
+      <c r="H88">
+        <v>587.89090378188394</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>572.61554998922759</v>
+      </c>
+      <c r="K88">
+        <v>549.93703018317296</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>98.012733720409329</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>39.049999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.58898847631242068</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>553.31310255013352</v>
+      </c>
+      <c r="W88">
+        <v>534.51427770207988</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>18.798824848053641</v>
+      </c>
+      <c r="Y88">
+        <v>8.4092396433055647</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>604.95000000000005</v>
+      </c>
+      <c r="D89">
+        <v>609.9</v>
+      </c>
+      <c r="E89">
+        <v>581</v>
+      </c>
+      <c r="F89">
+        <v>608.4</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>599.76666666666677</v>
+      </c>
+      <c r="H89">
+        <v>593.82878522427541</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>580.90098332495484</v>
+      </c>
+      <c r="K89">
+        <v>556.83991236469012</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>98.319494814266832</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>27.399999999999977</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>28.899999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.94809688581314877</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>561.78800985011299</v>
+      </c>
+      <c r="W89">
+        <v>539.98729416859248</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>21.800715681520501</v>
+      </c>
+      <c r="Y89">
+        <v>11.087534850948552</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>584.30000000000007</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>592.05000000000007</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>595.45000000000005</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>598.85</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>600</v>
+      </c>
+      <c r="D90">
+        <v>615</v>
+      </c>
+      <c r="E90">
+        <v>600</v>
+      </c>
+      <c r="F90">
+        <v>604.29999999999995</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>606.43333333333328</v>
+      </c>
+      <c r="H90">
+        <v>600.13105927880429</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>588.47854258607595</v>
+      </c>
+      <c r="K90">
+        <v>566.43104295031458</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>88.823622912461786</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.28666666666666363</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>568.32831602701867</v>
+      </c>
+      <c r="W90">
+        <v>544.75119830425228</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>23.577117722766388</v>
+      </c>
+      <c r="Y90">
+        <v>13.585451425312119</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>606</v>
+      </c>
+      <c r="D91">
+        <v>614.5</v>
+      </c>
+      <c r="E91">
+        <v>605</v>
+      </c>
+      <c r="F91">
+        <v>607</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>608.83333333333337</v>
+      </c>
+      <c r="H91">
+        <v>604.48219630606877</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>594.26108867805908</v>
+      </c>
+      <c r="K91">
+        <v>575.00192229468917</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>89.646741110399006</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>9.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>574.27780586901576</v>
+      </c>
+      <c r="W91">
+        <v>549.3622206520854</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>24.915585216930367</v>
+      </c>
+      <c r="Y91">
+        <v>15.851478183635768</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>610</v>
+      </c>
+      <c r="D92">
+        <v>610.95000000000005</v>
+      </c>
+      <c r="E92">
+        <v>580</v>
+      </c>
+      <c r="F92">
+        <v>592.9</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>594.61666666666667</v>
+      </c>
+      <c r="H92">
+        <v>599.54943148636767</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>597.96973563849042</v>
+      </c>
+      <c r="K92">
+        <v>576.1126062292027</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>60.541115557678559</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>30.950000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.41680129240710689</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>577.1427588122441</v>
+      </c>
+      <c r="W92">
+        <v>552.58724134452348</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>24.55551746772062</v>
+      </c>
+      <c r="Y92">
+        <v>17.592286040452738</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>605</v>
+      </c>
+      <c r="D93">
+        <v>606</v>
+      </c>
+      <c r="E93">
+        <v>580.5</v>
+      </c>
+      <c r="F93">
+        <v>604.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>597</v>
+      </c>
+      <c r="H93">
+        <v>598.27471574318383</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>599.75423882993698</v>
+      </c>
+      <c r="K93">
+        <v>577.08758262271317</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>70.417980921454728</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>25.5</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>581.35156514882192</v>
+      </c>
+      <c r="W93">
+        <v>556.43263087455875</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>24.918934274263165</v>
+      </c>
+      <c r="Y93">
+        <v>19.057615687214824</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>605</v>
+      </c>
+      <c r="D94">
+        <v>660</v>
+      </c>
+      <c r="E94">
+        <v>605</v>
+      </c>
+      <c r="F94">
+        <v>654</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>639.66666666666663</v>
+      </c>
+      <c r="H94">
+        <v>618.97069120492529</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>613.14218575661766</v>
+      </c>
+      <c r="K94">
+        <v>583.29034203988806</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>87.331879785890592</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.89090909090909087</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>592.5282474336185</v>
+      </c>
+      <c r="W94">
+        <v>563.65984340236923</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>28.86840403124927</v>
+      </c>
+      <c r="Y94">
+        <v>21.019773356021712</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>611.25</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>626</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>632.5</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>639</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>658</v>
+      </c>
+      <c r="D95">
+        <v>679.8</v>
+      </c>
+      <c r="E95">
+        <v>625</v>
+      </c>
+      <c r="F95">
+        <v>641</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>648.6</v>
+      </c>
+      <c r="H95">
+        <v>633.78534560246271</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>627.95503336625814</v>
+      </c>
+      <c r="K95">
+        <v>592.55915491991288</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>73.530256640915525</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>54.799999999999955</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.29197080291970828</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>599.98544013613878</v>
+      </c>
+      <c r="W95">
+        <v>569.38874389108264</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>30.596696245056137</v>
+      </c>
+      <c r="Y95">
+        <v>22.935157933828599</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>640</v>
+      </c>
+      <c r="D96">
+        <v>658</v>
+      </c>
+      <c r="E96">
+        <v>621.04999999999995</v>
+      </c>
+      <c r="F96">
+        <v>628.70000000000005</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>635.91666666666663</v>
+      </c>
+      <c r="H96">
+        <v>634.85100613456461</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>634.63169261820076</v>
+      </c>
+      <c r="K96">
+        <v>598.8904538265989</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>61.951072556966537</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>7.6500000000000909</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>36.950000000000045</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.20703653585927148</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>604.40306473057899</v>
+      </c>
+      <c r="W96">
+        <v>573.78217026952098</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>30.620894461058015</v>
+      </c>
+      <c r="Y96">
+        <v>24.472305239274483</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>627.70000000000005</v>
+      </c>
+      <c r="D97">
+        <v>636</v>
+      </c>
+      <c r="E97">
+        <v>608.15</v>
+      </c>
+      <c r="F97">
+        <v>615.79999999999995</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>619.98333333333335</v>
+      </c>
+      <c r="H97">
+        <v>627.41716973394898</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>634.93576092526723</v>
+      </c>
+      <c r="K97">
+        <v>600.94813075402135</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>51.350058080648907</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.6499999999999773</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>27.850000000000023</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.27468581687612104</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>606.156439387413</v>
+      </c>
+      <c r="W97">
+        <v>576.89460210140828</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>29.26183728600472</v>
+      </c>
+      <c r="Y97">
+        <v>25.430211648620531</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>622</v>
+      </c>
+      <c r="D98">
+        <v>627.5</v>
+      </c>
+      <c r="E98">
+        <v>608.35</v>
+      </c>
+      <c r="F98">
+        <v>614.54999999999995</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>616.79999999999995</v>
+      </c>
+      <c r="H98">
+        <v>622.10858486697452</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>633.28336960854119</v>
+      </c>
+      <c r="K98">
+        <v>602.59299058646104</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>50.307355609140401</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>6.1999999999999318</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>19.149999999999977</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.32375979112271225</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>607.44775640473404</v>
+      </c>
+      <c r="W98">
+        <v>579.68389083463728</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>27.763865570096755</v>
+      </c>
+      <c r="Y98">
+        <v>25.896942432915775</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>620</v>
+      </c>
+      <c r="D99">
+        <v>623.9</v>
+      </c>
+      <c r="E99">
+        <v>608</v>
+      </c>
+      <c r="F99">
+        <v>608.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>613.4666666666667</v>
+      </c>
+      <c r="H99">
+        <v>617.78762576682061</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>631.19817636219875</v>
+      </c>
+      <c r="K99">
+        <v>603.79454823391416</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>44.803277102662605</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>3.1446540880503186E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>607.609640034775</v>
+      </c>
+      <c r="W99">
+        <v>581.81841743947894</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>25.791222595296063</v>
+      </c>
+      <c r="Y99">
+        <v>25.875798465391831</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>616.4</v>
+      </c>
+      <c r="D100">
+        <v>620.45000000000005</v>
+      </c>
+      <c r="E100">
+        <v>605.65</v>
+      </c>
+      <c r="F100">
+        <v>612.79999999999995</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>612.96666666666658</v>
+      </c>
+      <c r="H100">
+        <v>615.37714621674354</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>628.80969272615459</v>
+      </c>
+      <c r="K100">
+        <v>604.20687084859992</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>49.693209295531766</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>7.1499999999999773</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>14.800000000000068</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.48310810810810434</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>608.40815695250194</v>
+      </c>
+      <c r="W100">
+        <v>584.11334948099898</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>24.294807471502963</v>
+      </c>
+      <c r="Y100">
+        <v>25.559600266614058</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>613.5</v>
+      </c>
+      <c r="D101">
+        <v>615</v>
+      </c>
+      <c r="E101">
+        <v>592.1</v>
+      </c>
+      <c r="F101">
+        <v>601</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>602.69999999999993</v>
+      </c>
+      <c r="H101">
+        <v>609.03857310837179</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>625.74087212034249</v>
+      </c>
+      <c r="K101">
+        <v>601.51645510446656</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>38.111571784800049</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>8.8999999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>22.899999999999977</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.38864628820960639</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>607.26844049827082</v>
+      </c>
+      <c r="W101">
+        <v>585.36421248240651</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>21.904228015864305</v>
+      </c>
+      <c r="Y101">
+        <v>24.828525816464108</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>600.1</v>
+      </c>
+      <c r="D102">
+        <v>610</v>
+      </c>
+      <c r="E102">
+        <v>600</v>
+      </c>
+      <c r="F102">
+        <v>601</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>603.66666666666663</v>
+      </c>
+      <c r="H102">
+        <v>606.35261988751927</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>622.24290053804418</v>
+      </c>
+      <c r="K102">
+        <v>601.17946508125181</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>38.111571784800049</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>606.3040650369984</v>
+      </c>
+      <c r="W102">
+        <v>586.52241896519126</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>19.781646071807131</v>
+      </c>
+      <c r="Y102">
+        <v>23.819149867532712</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>603</v>
+      </c>
+      <c r="D103">
+        <v>606.04999999999995</v>
+      </c>
+      <c r="E103">
+        <v>584</v>
+      </c>
+      <c r="F103">
+        <v>595.65</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>595.23333333333323</v>
+      </c>
+      <c r="H103">
+        <v>600.79297661042619</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>618.64447819625661</v>
+      </c>
+      <c r="K103">
+        <v>597.36180617430693</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>32.710799327868585</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>11.649999999999977</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>22.049999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.52834467120181416</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>604.66497810822943</v>
+      </c>
+      <c r="W103">
+        <v>587.19853607888081</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>17.466442029348627</v>
+      </c>
+      <c r="Y103">
+        <v>22.548608299895896</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>598</v>
+      </c>
+      <c r="D104">
+        <v>629.70000000000005</v>
+      </c>
+      <c r="E104">
+        <v>585.29999999999995</v>
+      </c>
+      <c r="F104">
+        <v>618.25</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>611.08333333333337</v>
+      </c>
+      <c r="H104">
+        <v>605.93815497187984</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>621.10126081931071</v>
+      </c>
+      <c r="K104">
+        <v>594.68140480223872</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>61.511182221872815</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>32.950000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>44.400000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.74211711711711659</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>606.75498147619419</v>
+      </c>
+      <c r="W104">
+        <v>589.49864451748226</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>17.256336958711927</v>
+      </c>
+      <c r="Y104">
+        <v>21.490154031659102</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
